--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gdf1-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gdf1-Acvr1.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.379592</v>
+        <v>8.489835333333334</v>
       </c>
       <c r="N2">
-        <v>16.138776</v>
+        <v>25.469506</v>
       </c>
       <c r="O2">
-        <v>0.1347369221116526</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="P2">
-        <v>0.1347369221116527</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="Q2">
-        <v>1.420147732896</v>
+        <v>2.241214649976</v>
       </c>
       <c r="R2">
-        <v>12.781329596064</v>
+        <v>20.170931849784</v>
       </c>
       <c r="S2">
-        <v>0.1347369221116526</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="T2">
-        <v>0.1347369221116527</v>
+        <v>0.2075776945087381</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +629,10 @@
         <v>39.444981</v>
       </c>
       <c r="O3">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="P3">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="Q3">
         <v>3.471000548076</v>
@@ -641,10 +641,10 @@
         <v>31.239004932684</v>
       </c>
       <c r="S3">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="T3">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.33802</v>
+        <v>5.630791333333334</v>
       </c>
       <c r="N4">
-        <v>16.01406</v>
+        <v>16.892374</v>
       </c>
       <c r="O4">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="P4">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="Q4">
-        <v>1.40917322376</v>
+        <v>1.486461342504</v>
       </c>
       <c r="R4">
-        <v>12.68255901384</v>
+        <v>13.378152082536</v>
       </c>
       <c r="S4">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="T4">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.113102</v>
+        <v>6.738585333333333</v>
       </c>
       <c r="N5">
-        <v>30.339306</v>
+        <v>20.215756</v>
       </c>
       <c r="O5">
-        <v>0.2532921151792178</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="P5">
-        <v>0.2532921151792179</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="Q5">
-        <v>2.669737570776</v>
+        <v>1.778905664976</v>
       </c>
       <c r="R5">
-        <v>24.027638136984</v>
+        <v>16.010150984784</v>
       </c>
       <c r="S5">
-        <v>0.2532921151792178</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="T5">
-        <v>0.2532921151792179</v>
+        <v>0.1647593802263456</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.855806</v>
+        <v>0.9376886666666667</v>
       </c>
       <c r="N6">
-        <v>2.567418</v>
+        <v>2.813066</v>
       </c>
       <c r="O6">
-        <v>0.02143446312744256</v>
+        <v>0.02292662271427322</v>
       </c>
       <c r="P6">
-        <v>0.02143446312744257</v>
+        <v>0.02292662271427321</v>
       </c>
       <c r="Q6">
-        <v>0.225922514328</v>
+        <v>0.247538555736</v>
       </c>
       <c r="R6">
-        <v>2.033302628952</v>
+        <v>2.227847001624</v>
       </c>
       <c r="S6">
-        <v>0.02143446312744256</v>
+        <v>0.02292662271427322</v>
       </c>
       <c r="T6">
-        <v>0.02143446312744257</v>
+        <v>0.02292662271427321</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.091788666666666</v>
+        <v>5.954327333333333</v>
       </c>
       <c r="N7">
-        <v>15.275366</v>
+        <v>17.862982</v>
       </c>
       <c r="O7">
-        <v>0.1275286179676195</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="P7">
-        <v>0.1275286179676196</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="Q7">
-        <v>1.344171106536</v>
+        <v>1.571870964072</v>
       </c>
       <c r="R7">
-        <v>12.097539958824</v>
+        <v>14.146838676648</v>
       </c>
       <c r="S7">
-        <v>0.1275286179676195</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="T7">
-        <v>0.1275286179676196</v>
+        <v>0.1455841593712531</v>
       </c>
     </row>
   </sheetData>
